--- a/examples/WOW AT Equity.xlsx
+++ b/examples/WOW AT Equity.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\103763\Projects\HELLO_CREDIT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE8EDF5-6716-4C9C-B99D-31C02FBC5BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-1620" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +128,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,9 +249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,14 +425,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,9 +518,11 @@
       <c r="Z1" s="2">
         <v>45199</v>
       </c>
-      <c r="AA1" s="1"/>
+      <c r="AA1" s="2">
+        <v>45565</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -508,164 +533,164 @@
         <v>61.7515</v>
       </c>
       <c r="D2">
-        <v>56.2341</v>
+        <v>56.234099999999998</v>
       </c>
       <c r="E2">
         <v>47.8673</v>
       </c>
       <c r="F2">
-        <v>41.3809</v>
+        <v>41.380899999999997</v>
       </c>
       <c r="G2">
-        <v>42.4425</v>
+        <v>42.442500000000003</v>
       </c>
       <c r="H2">
-        <v>49.6658</v>
+        <v>49.665799999999997</v>
       </c>
       <c r="I2">
         <v>30.6906</v>
       </c>
       <c r="J2">
-        <v>25.8365</v>
+        <v>25.836500000000001</v>
       </c>
       <c r="K2">
-        <v>29.8455</v>
+        <v>29.845500000000001</v>
       </c>
       <c r="L2">
-        <v>206.5877</v>
+        <v>206.58770000000001</v>
       </c>
       <c r="M2">
-        <v>856.1242</v>
+        <v>856.12419999999997</v>
       </c>
       <c r="N2">
         <v>274.6232</v>
       </c>
       <c r="O2">
-        <v>239.6801</v>
+        <v>239.68010000000001</v>
       </c>
       <c r="P2">
-        <v>300.2154</v>
+        <v>300.21539999999999</v>
       </c>
       <c r="Q2">
-        <v>41.3809</v>
+        <v>41.380899999999997</v>
       </c>
       <c r="R2">
-        <v>42.4425</v>
+        <v>42.442500000000003</v>
       </c>
       <c r="S2">
-        <v>49.6658</v>
+        <v>49.665799999999997</v>
       </c>
       <c r="T2">
         <v>30.6906</v>
       </c>
       <c r="U2">
-        <v>25.8365</v>
+        <v>25.836500000000001</v>
       </c>
       <c r="V2">
-        <v>29.8455</v>
+        <v>29.845500000000001</v>
       </c>
       <c r="W2">
-        <v>206.5877</v>
+        <v>206.58770000000001</v>
       </c>
       <c r="X2">
-        <v>856.1242</v>
+        <v>856.12419999999997</v>
       </c>
       <c r="Y2">
         <v>274.6232</v>
       </c>
       <c r="Z2">
-        <v>239.6801</v>
+        <v>239.68010000000001</v>
       </c>
       <c r="AA2">
-        <v>300.2154</v>
+        <v>300.21539999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1.1781</v>
+        <v>1.1780999999999999</v>
       </c>
       <c r="D3">
-        <v>1.1196</v>
+        <v>1.1195999999999999</v>
       </c>
       <c r="E3">
-        <v>0.9762999999999999</v>
+        <v>0.97629999999999995</v>
       </c>
       <c r="F3">
-        <v>0.9127999999999999</v>
+        <v>0.91279999999999994</v>
       </c>
       <c r="G3">
-        <v>1.0069</v>
+        <v>1.0068999999999999</v>
       </c>
       <c r="H3">
-        <v>1.6966</v>
+        <v>1.6966000000000001</v>
       </c>
       <c r="I3">
-        <v>0.8949</v>
+        <v>0.89490000000000003</v>
       </c>
       <c r="J3">
-        <v>0.7677</v>
+        <v>0.76770000000000005</v>
       </c>
       <c r="K3">
-        <v>0.8757</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="L3">
         <v>4.1612</v>
       </c>
       <c r="M3">
-        <v>2.7591</v>
+        <v>2.7591000000000001</v>
       </c>
       <c r="N3">
-        <v>3.3634</v>
+        <v>3.3633999999999999</v>
       </c>
       <c r="O3">
         <v>2.85</v>
       </c>
       <c r="P3">
-        <v>3.8239</v>
+        <v>3.8239000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.9127999999999999</v>
+        <v>0.91279999999999994</v>
       </c>
       <c r="R3">
-        <v>1.0069</v>
+        <v>1.0068999999999999</v>
       </c>
       <c r="S3">
-        <v>1.6966</v>
+        <v>1.6966000000000001</v>
       </c>
       <c r="T3">
-        <v>0.8949</v>
+        <v>0.89490000000000003</v>
       </c>
       <c r="U3">
-        <v>0.7677</v>
+        <v>0.76770000000000005</v>
       </c>
       <c r="V3">
-        <v>0.8757</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="W3">
         <v>4.1612</v>
       </c>
       <c r="X3">
-        <v>2.7591</v>
+        <v>2.7591000000000001</v>
       </c>
       <c r="Y3">
-        <v>3.3634</v>
+        <v>3.3633999999999999</v>
       </c>
       <c r="Z3">
         <v>2.85</v>
       </c>
       <c r="AA3">
-        <v>3.8239</v>
+        <v>3.8239000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>13.7031</v>
+        <v>13.703099999999999</v>
       </c>
       <c r="D4">
         <v>13.4038</v>
@@ -674,73 +699,73 @@
         <v>11.2706</v>
       </c>
       <c r="F4">
-        <v>17.6396</v>
+        <v>17.639600000000002</v>
       </c>
       <c r="G4">
-        <v>16.7463</v>
+        <v>16.746300000000002</v>
       </c>
       <c r="H4">
         <v>10.4674</v>
       </c>
       <c r="I4">
-        <v>16.7673</v>
+        <v>16.767299999999999</v>
       </c>
       <c r="J4">
-        <v>21.7321</v>
+        <v>21.732099999999999</v>
       </c>
       <c r="K4">
-        <v>26.4667</v>
+        <v>26.466699999999999</v>
       </c>
       <c r="L4">
-        <v>6.5556</v>
+        <v>6.5556000000000001</v>
       </c>
       <c r="M4">
-        <v>8.703200000000001</v>
+        <v>8.7032000000000007</v>
       </c>
       <c r="N4">
-        <v>8.0517</v>
+        <v>8.0517000000000003</v>
       </c>
       <c r="O4">
         <v>7.9097</v>
       </c>
       <c r="P4">
-        <v>5.6645</v>
+        <v>5.6645000000000003</v>
       </c>
       <c r="Q4">
-        <v>17.6396</v>
+        <v>17.639600000000002</v>
       </c>
       <c r="R4">
-        <v>16.7463</v>
+        <v>16.746300000000002</v>
       </c>
       <c r="S4">
         <v>10.4674</v>
       </c>
       <c r="T4">
-        <v>16.7673</v>
+        <v>16.767299999999999</v>
       </c>
       <c r="U4">
-        <v>21.7321</v>
+        <v>21.732099999999999</v>
       </c>
       <c r="V4">
-        <v>26.4667</v>
+        <v>26.466699999999999</v>
       </c>
       <c r="W4">
-        <v>6.5556</v>
+        <v>6.5556000000000001</v>
       </c>
       <c r="X4">
-        <v>8.703200000000001</v>
+        <v>8.7032000000000007</v>
       </c>
       <c r="Y4">
-        <v>8.0517</v>
+        <v>8.0517000000000003</v>
       </c>
       <c r="Z4">
         <v>7.9097</v>
       </c>
       <c r="AA4">
-        <v>5.6645</v>
+        <v>5.6645000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -748,82 +773,82 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.6832</v>
+        <v>2.6831999999999998</v>
       </c>
       <c r="D5">
-        <v>2.5898</v>
+        <v>2.5897999999999999</v>
       </c>
       <c r="E5">
-        <v>2.6773</v>
+        <v>2.6772999999999998</v>
       </c>
       <c r="F5">
-        <v>2.628</v>
+        <v>2.6280000000000001</v>
       </c>
       <c r="G5">
-        <v>2.3852</v>
+        <v>2.3852000000000002</v>
       </c>
       <c r="H5">
         <v>2.1976</v>
       </c>
       <c r="I5">
-        <v>2.3648</v>
+        <v>2.3647999999999998</v>
       </c>
       <c r="J5">
-        <v>2.4527</v>
+        <v>2.4527000000000001</v>
       </c>
       <c r="K5">
-        <v>2.5359</v>
+        <v>2.5358999999999998</v>
       </c>
       <c r="L5">
         <v>1.7016</v>
       </c>
       <c r="M5">
-        <v>1.4344</v>
+        <v>1.4343999999999999</v>
       </c>
       <c r="N5">
-        <v>1.6784</v>
+        <v>1.6783999999999999</v>
       </c>
       <c r="O5">
         <v>1.9215</v>
       </c>
       <c r="P5">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="Q5">
-        <v>2.628</v>
+        <v>2.6280000000000001</v>
       </c>
       <c r="R5">
-        <v>2.3852</v>
+        <v>2.3852000000000002</v>
       </c>
       <c r="S5">
         <v>2.1976</v>
       </c>
       <c r="T5">
-        <v>2.3648</v>
+        <v>2.3647999999999998</v>
       </c>
       <c r="U5">
-        <v>2.4527</v>
+        <v>2.4527000000000001</v>
       </c>
       <c r="V5">
-        <v>2.5359</v>
+        <v>2.5358999999999998</v>
       </c>
       <c r="W5">
         <v>1.7016</v>
       </c>
       <c r="X5">
-        <v>1.4344</v>
+        <v>1.4343999999999999</v>
       </c>
       <c r="Y5">
-        <v>1.6784</v>
+        <v>1.6783999999999999</v>
       </c>
       <c r="Z5">
         <v>1.9215</v>
       </c>
       <c r="AA5">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -834,25 +859,25 @@
         <v>6.17</v>
       </c>
       <c r="D6">
-        <v>6.0937</v>
+        <v>6.0937000000000001</v>
       </c>
       <c r="E6">
-        <v>6.1264</v>
+        <v>6.1264000000000003</v>
       </c>
       <c r="F6">
-        <v>6.1937</v>
+        <v>6.1936999999999998</v>
       </c>
       <c r="G6">
-        <v>6.0166</v>
+        <v>6.0166000000000004</v>
       </c>
       <c r="H6">
-        <v>2.7857</v>
+        <v>2.7856999999999998</v>
       </c>
       <c r="I6">
-        <v>4.2265</v>
+        <v>4.2264999999999997</v>
       </c>
       <c r="J6">
-        <v>4.4746</v>
+        <v>4.4745999999999997</v>
       </c>
       <c r="K6">
         <v>3.9194</v>
@@ -861,31 +886,31 @@
         <v>3.8169</v>
       </c>
       <c r="M6">
-        <v>5.0024</v>
+        <v>5.0023999999999997</v>
       </c>
       <c r="N6">
-        <v>4.3107</v>
+        <v>4.3106999999999998</v>
       </c>
       <c r="O6">
-        <v>4.5774</v>
+        <v>4.5773999999999999</v>
       </c>
       <c r="P6">
-        <v>2.3483</v>
+        <v>2.3483000000000001</v>
       </c>
       <c r="Q6">
-        <v>6.1937</v>
+        <v>6.1936999999999998</v>
       </c>
       <c r="R6">
-        <v>6.0166</v>
+        <v>6.0166000000000004</v>
       </c>
       <c r="S6">
-        <v>2.7857</v>
+        <v>2.7856999999999998</v>
       </c>
       <c r="T6">
-        <v>4.2265</v>
+        <v>4.2264999999999997</v>
       </c>
       <c r="U6">
-        <v>4.4746</v>
+        <v>4.4745999999999997</v>
       </c>
       <c r="V6">
         <v>3.9194</v>
@@ -894,19 +919,19 @@
         <v>3.8169</v>
       </c>
       <c r="X6">
-        <v>5.0024</v>
+        <v>5.0023999999999997</v>
       </c>
       <c r="Y6">
-        <v>4.3107</v>
+        <v>4.3106999999999998</v>
       </c>
       <c r="Z6">
-        <v>4.5774</v>
+        <v>4.5773999999999999</v>
       </c>
       <c r="AA6">
-        <v>2.3483</v>
+        <v>2.3483000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -914,7 +939,7 @@
         <v>10.8048</v>
       </c>
       <c r="D7">
-        <v>8.567399999999999</v>
+        <v>8.5673999999999992</v>
       </c>
       <c r="E7">
         <v>10.3095</v>
@@ -923,31 +948,31 @@
         <v>10.5707</v>
       </c>
       <c r="G7">
-        <v>8.6754</v>
+        <v>8.6753999999999998</v>
       </c>
       <c r="H7">
-        <v>-5.0566</v>
+        <v>-5.0566000000000004</v>
       </c>
       <c r="I7">
-        <v>6.5914</v>
+        <v>6.5914000000000001</v>
       </c>
       <c r="J7">
-        <v>7.4256</v>
+        <v>7.4256000000000002</v>
       </c>
       <c r="K7">
         <v>11.381</v>
       </c>
       <c r="L7">
-        <v>3.7347</v>
+        <v>3.7347000000000001</v>
       </c>
       <c r="M7">
-        <v>5.3379</v>
+        <v>5.3379000000000003</v>
       </c>
       <c r="N7">
         <v>21.8842</v>
       </c>
       <c r="O7">
-        <v>4.8356</v>
+        <v>4.8356000000000003</v>
       </c>
       <c r="P7">
         <v>0.3196</v>
@@ -956,31 +981,31 @@
         <v>10.5707</v>
       </c>
       <c r="R7">
-        <v>8.6754</v>
+        <v>8.6753999999999998</v>
       </c>
       <c r="S7">
-        <v>-5.0566</v>
+        <v>-5.0566000000000004</v>
       </c>
       <c r="T7">
-        <v>6.5914</v>
+        <v>6.5914000000000001</v>
       </c>
       <c r="U7">
-        <v>7.4256</v>
+        <v>7.4256000000000002</v>
       </c>
       <c r="V7">
         <v>11.381</v>
       </c>
       <c r="W7">
-        <v>3.7347</v>
+        <v>3.7347000000000001</v>
       </c>
       <c r="X7">
-        <v>5.3379</v>
+        <v>5.3379000000000003</v>
       </c>
       <c r="Y7">
         <v>21.8842</v>
       </c>
       <c r="Z7">
-        <v>4.8356</v>
+        <v>4.8356000000000003</v>
       </c>
       <c r="AA7">
         <v>0.3196</v>
